--- a/data/all_data_2024.xlsx
+++ b/data/all_data_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\research_data\Methamphetamine_ERP_EGI\connectome-based analysis\CPM_ZHB\CPM_formal\0718_update\supplement\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\research_data\Methamphetamine_ERP_EGI\CPM_EEG_craving\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733690B0-ED87-458C-A1F9-93EDE086942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E3687-8280-4692-9106-17871F447A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{C54E38D0-AA25-4BC7-B999-3EE78ACB144A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{C54E38D0-AA25-4BC7-B999-3EE78ACB144A}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BSI_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,10 @@
   </si>
   <si>
     <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIS_total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDCF0AE-1B50-4F38-BC24-82322D3CC737}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -501,15 +501,15 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>37</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>43</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>58</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>36</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>53</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>31</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>39</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>45</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>31</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>41</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>47</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>47</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>52</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>46</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>39</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>32</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>28</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>35</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>34</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>39</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>43</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>33</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>45</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>52</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>45</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>40</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>37</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>42</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>35</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>34</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>38</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>23</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>35</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>46</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>23</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>21</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>34</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>36</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>43</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>32</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>33</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>33</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>30</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>38</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
         <v>30</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>24</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <v>34</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>29</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60">
         <v>48</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61">
         <v>40</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>36</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>54</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>51</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>28</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>44</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>54</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>30</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>39</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71">
         <v>41</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72">
         <v>35</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73">
         <v>38</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74">
         <v>29</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75">
         <v>29</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76">
         <v>33</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>39</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78">
         <v>36</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79">
         <v>54</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80">
         <v>38</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81">
         <v>46</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>26</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83">
         <v>38</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <v>30</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <v>33</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86">
         <v>35</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>54</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88">
         <v>46</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89">
         <v>44</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90">
         <v>44</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91">
         <v>38</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <v>41</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>27</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94">
         <v>42</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95">
         <v>27</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96">
         <v>54</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
         <v>42</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98">
         <v>32</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100">
         <v>41</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101">
         <v>38</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>28</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103">
         <v>44</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>47</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105">
         <v>34</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>30</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107">
         <v>36</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108">
         <v>33</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B109">
         <v>31</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110">
         <v>35</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111">
         <v>31</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>37</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>46</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>40</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B115">
         <v>30</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>42</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B117">
         <v>42</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>50</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>32</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>51</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B121">
         <v>38</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122">
         <v>27</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B123">
         <v>40</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124">
         <v>45</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125">
         <v>47</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126">
         <v>33</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B127">
         <v>29</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128">
         <v>35</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B129">
         <v>40</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130">
         <v>50</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B131">
         <v>35</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B132">
         <v>24</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B133">
         <v>32</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B134">
         <v>38</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135">
         <v>33</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B136">
         <v>34</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B137">
         <v>35</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B138">
         <v>38</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139">
         <v>49</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B140">
         <v>26</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B141">
         <v>33</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B142">
         <v>44</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B143">
         <v>45</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B144">
         <v>54</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B145">
         <v>47</v>
@@ -5977,15 +5977,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A4738C-4FB3-4B58-9C8A-8F535A0A9489}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6015,15 +6015,15 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>39</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>43</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>45</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>38</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>36</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>28</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>34</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>41</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>49</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>42</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>33</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>28</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>35</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>36</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>33</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>37</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>38</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>40</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>42</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>43</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>53</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>54</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>39</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>30</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>41</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>28</v>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>25</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>31</v>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>31</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>35</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>29</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>47</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>34</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>40</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>40</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>25</v>
